--- a/public/Purchase Data Sample.xlsx
+++ b/public/Purchase Data Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NodeJS\gst-reconciliation-tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITAdm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983F758-3AD8-4B6A-B91A-6AF190E7BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B14BC-C673-44AB-B154-270D8D481BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C17FD287-6245-4150-ABA4-7313E91B6D43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Supplier GSTIN</t>
   </si>
@@ -64,14 +64,31 @@
   </si>
   <si>
     <t>Vno</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Book</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,59 +436,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABDE913-8B98-4995-ADAB-DFE60228400C}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J51"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -482,7 +509,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -494,7 +521,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -506,7 +533,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -518,7 +545,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -530,7 +557,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -542,7 +569,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -554,7 +581,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -566,7 +593,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -578,7 +605,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -590,7 +617,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -602,7 +629,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -614,7 +641,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -626,7 +653,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -638,7 +665,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
